--- a/data/ReferenceSheet_WavesOfData.xlsx
+++ b/data/ReferenceSheet_WavesOfData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\src\ssascams\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ED8AE7-EEE9-4336-B31B-ED0116915DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B0948C-E8EA-4B4E-9E6F-0E0078367A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="39">
   <si>
     <t>Test Tool</t>
   </si>
@@ -136,13 +136,35 @@
   </si>
   <si>
     <t>Completion Rate</t>
+  </si>
+  <si>
+    <t>1-13 days</t>
+  </si>
+  <si>
+    <t>3-13 days</t>
+  </si>
+  <si>
+    <t>11-17 days</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Nationally Representative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -167,17 +189,174 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,18 +634,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:S20"/>
+  <dimension ref="B3:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
@@ -523,8 +709,30 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
       <c r="L4">
-        <v>150</v>
+        <v>153</v>
+      </c>
+      <c r="O4">
+        <v>151</v>
+      </c>
+      <c r="P4">
+        <f>O4/L4</f>
+        <v>0.98692810457516345</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
@@ -548,8 +756,18 @@
       <c r="J6" t="s">
         <v>23</v>
       </c>
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
       <c r="L6">
         <v>395</v>
+      </c>
+      <c r="O6">
+        <v>277</v>
+      </c>
+      <c r="P6">
+        <f>O6/L6</f>
+        <v>0.70126582278481009</v>
       </c>
       <c r="Q6" t="s">
         <v>25</v>
@@ -565,6 +783,9 @@
       <c r="G8" t="s">
         <v>21</v>
       </c>
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
       <c r="L8" s="2">
         <v>1064</v>
       </c>
@@ -657,14 +878,17 @@
         <v>438</v>
       </c>
       <c r="N12">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="O12">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="P12">
         <f>O12/L12</f>
-        <v>0.38812785388127852</v>
+        <v>0.43378995433789952</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
@@ -771,11 +995,11 @@
         <v>352</v>
       </c>
       <c r="O16">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="P16">
         <f>O16/L16</f>
-        <v>0.18617021276595744</v>
+        <v>0.1524822695035461</v>
       </c>
       <c r="Q16" t="s">
         <v>26</v>
@@ -784,13 +1008,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <f>O16/N16</f>
+        <v>0.24431818181818182</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L18">
         <f>SUM(L4:L16)</f>
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="20" spans="12:14" x14ac:dyDescent="0.25">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L20">
         <f>M13+M14+M15</f>
         <v>390</v>
@@ -800,6 +1030,341 @@
         <v>210</v>
       </c>
     </row>
+    <row r="24" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:16" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="8">
+        <v>44240</v>
+      </c>
+      <c r="E26" s="8">
+        <v>44240</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="8">
+        <v>44240</v>
+      </c>
+      <c r="H26" s="8">
+        <v>44240</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="7">
+        <v>50</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" s="7">
+        <v>49</v>
+      </c>
+      <c r="O26" s="15">
+        <f>N26/K26</f>
+        <v>0.98</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="8">
+        <v>44241</v>
+      </c>
+      <c r="E27" s="8">
+        <v>44241</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="8">
+        <v>44241</v>
+      </c>
+      <c r="H27" s="8">
+        <v>44241</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="7">
+        <v>153</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N27" s="7">
+        <v>151</v>
+      </c>
+      <c r="O27" s="15">
+        <f>N27/K27</f>
+        <v>0.98692810457516345</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="8">
+        <v>44324</v>
+      </c>
+      <c r="E28" s="8">
+        <v>44324</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="8">
+        <v>44324</v>
+      </c>
+      <c r="H28" s="8">
+        <v>44324</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="7">
+        <v>395</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N28" s="7">
+        <v>277</v>
+      </c>
+      <c r="O28" s="15">
+        <f>N28/K28</f>
+        <v>0.70126582278481009</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="8">
+        <v>44325</v>
+      </c>
+      <c r="E29" s="8">
+        <v>44329</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="8">
+        <v>44329</v>
+      </c>
+      <c r="H29" s="8">
+        <v>44339</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="10">
+        <v>1064</v>
+      </c>
+      <c r="L29" s="7">
+        <v>1032</v>
+      </c>
+      <c r="M29" s="7">
+        <v>879</v>
+      </c>
+      <c r="N29" s="7">
+        <v>725</v>
+      </c>
+      <c r="O29" s="15">
+        <f>N29/K29</f>
+        <v>0.68139097744360899</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="8">
+        <v>44370</v>
+      </c>
+      <c r="E30" s="8">
+        <v>44375</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="8">
+        <v>44376</v>
+      </c>
+      <c r="H30" s="8">
+        <v>44394</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="7">
+        <v>438</v>
+      </c>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7">
+        <v>249</v>
+      </c>
+      <c r="N30" s="7">
+        <v>190</v>
+      </c>
+      <c r="O30" s="15">
+        <f>N30/K30</f>
+        <v>0.43378995433789952</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="13">
+        <v>44371</v>
+      </c>
+      <c r="E31" s="13">
+        <v>44374</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="13">
+        <v>44386</v>
+      </c>
+      <c r="H31" s="13">
+        <v>44389</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="12">
+        <v>564</v>
+      </c>
+      <c r="L31" s="12">
+        <v>457</v>
+      </c>
+      <c r="M31" s="12">
+        <v>352</v>
+      </c>
+      <c r="N31" s="12">
+        <v>86</v>
+      </c>
+      <c r="O31" s="16">
+        <f>N31/K31</f>
+        <v>0.1524822695035461</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
